--- a/LangMod/EN/LangGeneral.xlsx
+++ b/LangMod/EN/LangGeneral.xlsx
@@ -11,7 +11,7 @@
     <sheet name="General" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">General!$A$3:$D$29</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">General!$A$3:$D$28</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">復讐の</t>
   </si>
   <si>
-    <t xml:space="preserve">Vangeful </t>
+    <t xml:space="preserve">Vengeful </t>
   </si>
 </sst>
 </file>
@@ -971,137 +971,126 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="1047567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1047568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1047569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1047570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2112,7 +2101,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:D29"/>
+  <autoFilter ref="A3:D28"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
